--- a/2023年9月.xlsx
+++ b/2023年9月.xlsx
@@ -24873,7 +24873,7 @@
   <dimension ref="A1:BC66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AG11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -37277,7 +37277,7 @@
   <dimension ref="A1:BB80"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -47098,10 +47098,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="J205" sqref="J192:J205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -47324,7 +47324,7 @@
       <c r="F9" s="39">
         <v>1000</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9">
         <v>1</v>
@@ -47347,7 +47347,7 @@
       <c r="F10" s="39">
         <v>1200</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10">
         <v>1</v>
@@ -47370,7 +47370,7 @@
       <c r="F11" s="43">
         <v>1500</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11">
         <v>1</v>
@@ -47393,7 +47393,7 @@
       <c r="F12" s="43">
         <v>1500</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12">
         <v>1</v>
@@ -47416,7 +47416,7 @@
       <c r="F13" s="43">
         <v>1500</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="J13">
         <v>2</v>
@@ -47533,7 +47533,7 @@
       <c r="F18" s="43">
         <v>3000</v>
       </c>
-      <c r="G18" s="35"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="35"/>
       <c r="I18">
         <v>1</v>
@@ -47556,7 +47556,7 @@
       <c r="F19" s="43">
         <v>3000</v>
       </c>
-      <c r="G19" s="35"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="35"/>
       <c r="I19">
         <v>1</v>
@@ -47579,7 +47579,7 @@
       <c r="F20" s="43">
         <v>3000</v>
       </c>
-      <c r="G20" s="35"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="35"/>
       <c r="I20">
         <v>1</v>
@@ -47604,7 +47604,7 @@
       <c r="F21" s="39">
         <v>3000</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="35"/>
       <c r="I21">
         <v>1</v>
@@ -47627,7 +47627,7 @@
       <c r="F22" s="39">
         <v>3000</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="35"/>
       <c r="I22">
         <v>1</v>
@@ -47650,7 +47650,7 @@
       <c r="F23" s="39">
         <v>3000</v>
       </c>
-      <c r="G23" s="35"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="35"/>
       <c r="I23">
         <v>1</v>
@@ -47673,7 +47673,7 @@
       <c r="F24" s="39">
         <v>3000</v>
       </c>
-      <c r="G24" s="35"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="35"/>
       <c r="I24">
         <v>1</v>
@@ -47696,7 +47696,7 @@
       <c r="F25" s="39">
         <v>3000</v>
       </c>
-      <c r="G25" s="35"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="35"/>
       <c r="I25">
         <v>1</v>
@@ -47719,7 +47719,7 @@
       <c r="F26" s="39">
         <v>3000</v>
       </c>
-      <c r="G26" s="35"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="35"/>
       <c r="I26">
         <v>1</v>
@@ -47742,7 +47742,7 @@
       <c r="F27" s="39">
         <v>3000</v>
       </c>
-      <c r="G27" s="35"/>
+      <c r="G27" s="44"/>
       <c r="H27" s="35"/>
       <c r="I27">
         <v>1</v>
@@ -47765,7 +47765,7 @@
       <c r="F28" s="39">
         <v>3000</v>
       </c>
-      <c r="G28" s="35"/>
+      <c r="G28" s="44"/>
       <c r="H28" s="35"/>
       <c r="I28">
         <v>1</v>
@@ -47788,7 +47788,7 @@
       <c r="F29" s="39">
         <v>3000</v>
       </c>
-      <c r="G29" s="35"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="35"/>
       <c r="I29">
         <v>1</v>
@@ -47811,7 +47811,7 @@
       <c r="F30" s="39">
         <v>3000</v>
       </c>
-      <c r="G30" s="35"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="35"/>
     </row>
     <row r="31" ht="25.5" customHeight="1" spans="1:9">
@@ -47831,7 +47831,7 @@
       <c r="F31" s="39">
         <v>3000</v>
       </c>
-      <c r="G31" s="35"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="35"/>
       <c r="I31">
         <v>1</v>
@@ -47856,7 +47856,7 @@
       <c r="F32" s="43">
         <v>3000</v>
       </c>
-      <c r="G32" s="35"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="35"/>
       <c r="I32">
         <v>1</v>
@@ -47879,7 +47879,7 @@
       <c r="F33" s="43">
         <v>3000</v>
       </c>
-      <c r="G33" s="35"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="35"/>
       <c r="I33">
         <v>1</v>
@@ -47904,7 +47904,7 @@
       <c r="F34" s="43">
         <v>3000</v>
       </c>
-      <c r="G34" s="35"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="35"/>
       <c r="I34">
         <v>1</v>
@@ -47927,7 +47927,7 @@
       <c r="F35" s="43">
         <v>3000</v>
       </c>
-      <c r="G35" s="35"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="35"/>
       <c r="I35">
         <v>1</v>
@@ -47950,7 +47950,7 @@
       <c r="F36" s="43">
         <v>3000</v>
       </c>
-      <c r="G36" s="35"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="35"/>
       <c r="I36">
         <v>1</v>
@@ -47973,7 +47973,7 @@
       <c r="F37" s="43">
         <v>3000</v>
       </c>
-      <c r="G37" s="35"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="35"/>
       <c r="I37">
         <v>1</v>
@@ -47996,7 +47996,7 @@
       <c r="F38" s="43">
         <v>3000</v>
       </c>
-      <c r="G38" s="35"/>
+      <c r="G38" s="44"/>
       <c r="H38" s="35"/>
       <c r="I38">
         <v>1</v>
@@ -48019,7 +48019,7 @@
       <c r="F39" s="43">
         <v>3000</v>
       </c>
-      <c r="G39" s="35"/>
+      <c r="G39" s="44"/>
       <c r="H39" s="35"/>
       <c r="I39">
         <v>1</v>
@@ -48042,7 +48042,7 @@
       <c r="F40" s="43">
         <v>3000</v>
       </c>
-      <c r="G40" s="35"/>
+      <c r="G40" s="44"/>
       <c r="H40" s="35"/>
       <c r="I40">
         <v>1</v>
@@ -48067,7 +48067,7 @@
       <c r="F41" s="43">
         <v>3000</v>
       </c>
-      <c r="G41" s="35"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="35"/>
       <c r="I41">
         <v>1</v>
@@ -48090,7 +48090,7 @@
       <c r="F42" s="39">
         <v>3000</v>
       </c>
-      <c r="G42" s="35"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="35"/>
       <c r="I42">
         <v>1</v>
@@ -48113,7 +48113,7 @@
       <c r="F43" s="39">
         <v>3000</v>
       </c>
-      <c r="G43" s="35"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="35"/>
       <c r="I43">
         <v>1</v>
@@ -48136,7 +48136,7 @@
       <c r="F44" s="39">
         <v>3000</v>
       </c>
-      <c r="G44" s="35"/>
+      <c r="G44" s="44"/>
       <c r="H44" s="35"/>
       <c r="I44">
         <v>1</v>
@@ -48161,7 +48161,7 @@
       <c r="F45" s="39">
         <v>3000</v>
       </c>
-      <c r="G45" s="35"/>
+      <c r="G45" s="44"/>
       <c r="H45" s="35"/>
       <c r="I45">
         <v>1</v>
@@ -48184,7 +48184,7 @@
       <c r="F46" s="39">
         <v>3000</v>
       </c>
-      <c r="G46" s="35"/>
+      <c r="G46" s="44"/>
       <c r="H46" s="35"/>
       <c r="I46">
         <v>1</v>
@@ -48207,7 +48207,7 @@
       <c r="F47" s="39">
         <v>3000</v>
       </c>
-      <c r="G47" s="35"/>
+      <c r="G47" s="44"/>
       <c r="H47" s="35"/>
     </row>
     <row r="48" ht="25.5" customHeight="1" spans="1:9">
@@ -48227,7 +48227,7 @@
       <c r="F48" s="39">
         <v>3000</v>
       </c>
-      <c r="G48" s="35"/>
+      <c r="G48" s="44"/>
       <c r="H48" s="35"/>
       <c r="I48">
         <v>1</v>
@@ -48250,7 +48250,7 @@
       <c r="F49" s="39">
         <v>3000</v>
       </c>
-      <c r="G49" s="35"/>
+      <c r="G49" s="44"/>
       <c r="H49" s="35"/>
       <c r="I49">
         <v>1</v>
@@ -48275,7 +48275,7 @@
       <c r="F50" s="39">
         <v>3000</v>
       </c>
-      <c r="G50" s="35"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="35"/>
       <c r="I50">
         <v>1</v>
@@ -48298,7 +48298,7 @@
       <c r="F51" s="39">
         <v>3000</v>
       </c>
-      <c r="G51" s="35"/>
+      <c r="G51" s="44"/>
       <c r="H51" s="35"/>
       <c r="I51">
         <v>1</v>
@@ -48321,7 +48321,7 @@
       <c r="F52" s="43">
         <v>3000</v>
       </c>
-      <c r="G52" s="35"/>
+      <c r="G52" s="44"/>
       <c r="H52" s="35"/>
     </row>
     <row r="53" ht="25.5" customHeight="1" spans="1:8">
@@ -48341,7 +48341,7 @@
       <c r="F53" s="43">
         <v>3000</v>
       </c>
-      <c r="G53" s="35"/>
+      <c r="G53" s="44"/>
       <c r="H53" s="35"/>
     </row>
     <row r="54" ht="25.5" customHeight="1" spans="1:8">
@@ -48361,7 +48361,7 @@
       <c r="F54" s="43">
         <v>3000</v>
       </c>
-      <c r="G54" s="35"/>
+      <c r="G54" s="44"/>
       <c r="H54" s="35"/>
     </row>
     <row r="55" ht="25.5" customHeight="1" spans="1:8">
@@ -48381,7 +48381,7 @@
       <c r="F55" s="43">
         <v>3000</v>
       </c>
-      <c r="G55" s="35"/>
+      <c r="G55" s="44"/>
       <c r="H55" s="35"/>
     </row>
     <row r="56" ht="25.5" customHeight="1" spans="1:8">
@@ -48401,7 +48401,7 @@
       <c r="F56" s="43">
         <v>3000</v>
       </c>
-      <c r="G56" s="35"/>
+      <c r="G56" s="44"/>
       <c r="H56" s="35"/>
     </row>
     <row r="57" ht="25.5" customHeight="1" spans="1:8">
@@ -48421,7 +48421,7 @@
       <c r="F57" s="43">
         <v>3000</v>
       </c>
-      <c r="G57" s="35"/>
+      <c r="G57" s="44"/>
       <c r="H57" s="35"/>
     </row>
     <row r="58" ht="25.5" customHeight="1" spans="1:8">
@@ -48441,7 +48441,7 @@
       <c r="F58" s="43">
         <v>3000</v>
       </c>
-      <c r="G58" s="35"/>
+      <c r="G58" s="44"/>
       <c r="H58" s="35"/>
     </row>
     <row r="59" ht="25.5" customHeight="1" spans="1:8">
@@ -48461,7 +48461,7 @@
       <c r="F59" s="43">
         <v>3000</v>
       </c>
-      <c r="G59" s="35"/>
+      <c r="G59" s="44"/>
       <c r="H59" s="35"/>
     </row>
     <row r="60" ht="25.5" customHeight="1" spans="1:8">
@@ -48481,7 +48481,7 @@
       <c r="F60" s="43">
         <v>3000</v>
       </c>
-      <c r="G60" s="35"/>
+      <c r="G60" s="44"/>
       <c r="H60" s="35"/>
     </row>
     <row r="61" ht="25.5" customHeight="1" spans="1:8">
@@ -48501,7 +48501,7 @@
       <c r="F61" s="43">
         <v>3000</v>
       </c>
-      <c r="G61" s="35"/>
+      <c r="G61" s="44"/>
       <c r="H61" s="35"/>
     </row>
     <row r="62" ht="25.5" customHeight="1" spans="1:8">
@@ -48521,7 +48521,7 @@
       <c r="F62" s="39">
         <v>3000</v>
       </c>
-      <c r="G62" s="35"/>
+      <c r="G62" s="44"/>
       <c r="H62" s="35"/>
     </row>
     <row r="63" ht="25.5" customHeight="1" spans="1:8">
@@ -48541,7 +48541,7 @@
       <c r="F63" s="39">
         <v>3000</v>
       </c>
-      <c r="G63" s="35"/>
+      <c r="G63" s="44"/>
       <c r="H63" s="35"/>
     </row>
     <row r="64" ht="25.5" customHeight="1" spans="1:8">
@@ -48563,7 +48563,7 @@
       <c r="F64" s="39">
         <v>3000</v>
       </c>
-      <c r="G64" s="35"/>
+      <c r="G64" s="44"/>
       <c r="H64" s="35"/>
     </row>
     <row r="65" ht="25.5" customHeight="1" spans="1:8">
@@ -48583,7 +48583,7 @@
       <c r="F65" s="39">
         <v>3000</v>
       </c>
-      <c r="G65" s="35"/>
+      <c r="G65" s="44"/>
       <c r="H65" s="35"/>
     </row>
     <row r="66" ht="25.5" customHeight="1" spans="1:8">
@@ -48603,7 +48603,7 @@
       <c r="F66" s="39">
         <v>3000</v>
       </c>
-      <c r="G66" s="35"/>
+      <c r="G66" s="44"/>
       <c r="H66" s="35"/>
     </row>
     <row r="67" ht="25.5" customHeight="1" spans="1:8">
@@ -48623,7 +48623,7 @@
       <c r="F67" s="39">
         <v>3000</v>
       </c>
-      <c r="G67" s="35"/>
+      <c r="G67" s="44"/>
       <c r="H67" s="35"/>
     </row>
     <row r="68" ht="25.5" customHeight="1" spans="1:8">
@@ -48643,7 +48643,7 @@
       <c r="F68" s="39">
         <v>3000</v>
       </c>
-      <c r="G68" s="35"/>
+      <c r="G68" s="44"/>
       <c r="H68" s="35"/>
     </row>
     <row r="69" ht="25.5" customHeight="1" spans="1:9">
@@ -48663,7 +48663,7 @@
       <c r="F69" s="39">
         <v>3000</v>
       </c>
-      <c r="G69" s="35"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="35"/>
       <c r="I69">
         <v>1</v>
@@ -48686,7 +48686,7 @@
       <c r="F70" s="39">
         <v>3000</v>
       </c>
-      <c r="G70" s="35"/>
+      <c r="G70" s="44"/>
       <c r="H70" s="35"/>
     </row>
     <row r="71" ht="25.5" customHeight="1" spans="1:8">
@@ -48706,7 +48706,7 @@
       <c r="F71" s="39">
         <v>3000</v>
       </c>
-      <c r="G71" s="35"/>
+      <c r="G71" s="44"/>
       <c r="H71" s="35"/>
     </row>
     <row r="72" ht="25.5" customHeight="1" spans="1:9">
@@ -48726,7 +48726,7 @@
       <c r="F72" s="43">
         <v>3000</v>
       </c>
-      <c r="G72" s="35"/>
+      <c r="G72" s="44"/>
       <c r="H72" s="35"/>
       <c r="I72">
         <v>1</v>
@@ -48749,7 +48749,7 @@
       <c r="F73" s="43">
         <v>3000</v>
       </c>
-      <c r="G73" s="35"/>
+      <c r="G73" s="44"/>
       <c r="H73" s="35"/>
     </row>
     <row r="74" ht="25.5" customHeight="1" spans="1:8">
@@ -48769,7 +48769,7 @@
       <c r="F74" s="43">
         <v>3000</v>
       </c>
-      <c r="G74" s="35"/>
+      <c r="G74" s="44"/>
       <c r="H74" s="35"/>
     </row>
     <row r="75" ht="25.5" customHeight="1" spans="1:8">
@@ -48789,7 +48789,7 @@
       <c r="F75" s="43">
         <v>3000</v>
       </c>
-      <c r="G75" s="35"/>
+      <c r="G75" s="44"/>
       <c r="H75" s="35"/>
     </row>
     <row r="76" ht="25.5" customHeight="1" spans="1:8">
@@ -48809,7 +48809,7 @@
       <c r="F76" s="43">
         <v>3000</v>
       </c>
-      <c r="G76" s="35"/>
+      <c r="G76" s="44"/>
       <c r="H76" s="35"/>
     </row>
     <row r="77" ht="25.5" customHeight="1" spans="1:8">
@@ -48829,7 +48829,7 @@
       <c r="F77" s="43">
         <v>3000</v>
       </c>
-      <c r="G77" s="35"/>
+      <c r="G77" s="44"/>
       <c r="H77" s="35"/>
     </row>
     <row r="78" ht="25.5" customHeight="1" spans="1:8">
@@ -48849,7 +48849,7 @@
       <c r="F78" s="43">
         <v>3000</v>
       </c>
-      <c r="G78" s="35"/>
+      <c r="G78" s="44"/>
       <c r="H78" s="35"/>
     </row>
     <row r="79" ht="25.5" customHeight="1" spans="1:8">
@@ -48869,7 +48869,7 @@
       <c r="F79" s="43">
         <v>3000</v>
       </c>
-      <c r="G79" s="35"/>
+      <c r="G79" s="44"/>
       <c r="H79" s="35"/>
     </row>
     <row r="80" ht="25.5" customHeight="1" spans="1:8">
@@ -48889,7 +48889,7 @@
       <c r="F80" s="43">
         <v>3000</v>
       </c>
-      <c r="G80" s="35"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="35"/>
     </row>
     <row r="81" ht="25.5" customHeight="1" spans="1:8">
@@ -48909,7 +48909,7 @@
       <c r="F81" s="43">
         <v>3000</v>
       </c>
-      <c r="G81" s="35"/>
+      <c r="G81" s="44"/>
       <c r="H81" s="35"/>
     </row>
     <row r="82" ht="25.5" customHeight="1" spans="1:8">
@@ -48929,7 +48929,7 @@
       <c r="F82" s="43">
         <v>3000</v>
       </c>
-      <c r="G82" s="35"/>
+      <c r="G82" s="44"/>
       <c r="H82" s="35"/>
     </row>
     <row r="83" ht="25.5" customHeight="1" spans="1:8">
@@ -48949,7 +48949,7 @@
       <c r="F83" s="39">
         <v>3000</v>
       </c>
-      <c r="G83" s="35"/>
+      <c r="G83" s="44"/>
       <c r="H83" s="35"/>
     </row>
     <row r="84" ht="25.5" customHeight="1" spans="1:8">
@@ -48969,7 +48969,7 @@
       <c r="F84" s="40" t="s">
         <v>912</v>
       </c>
-      <c r="G84" s="35"/>
+      <c r="G84" s="44"/>
       <c r="H84" s="35"/>
     </row>
     <row r="85" ht="25.5" customHeight="1" spans="1:8">
@@ -48989,7 +48989,7 @@
       <c r="F85" s="39">
         <v>3000</v>
       </c>
-      <c r="G85" s="35"/>
+      <c r="G85" s="44"/>
       <c r="H85" s="35"/>
     </row>
     <row r="86" ht="25.5" customHeight="1" spans="1:8">
@@ -49009,7 +49009,7 @@
       <c r="F86" s="39">
         <v>3000</v>
       </c>
-      <c r="G86" s="35"/>
+      <c r="G86" s="44"/>
       <c r="H86" s="35"/>
     </row>
     <row r="87" ht="25.5" customHeight="1" spans="1:8">
@@ -49029,7 +49029,7 @@
       <c r="F87" s="39">
         <v>3000</v>
       </c>
-      <c r="G87" s="35"/>
+      <c r="G87" s="44"/>
       <c r="H87" s="35"/>
     </row>
     <row r="88" ht="25.5" customHeight="1" spans="1:8">
@@ -49049,7 +49049,7 @@
       <c r="F88" s="39">
         <v>3000</v>
       </c>
-      <c r="G88" s="35"/>
+      <c r="G88" s="44"/>
       <c r="H88" s="35"/>
     </row>
     <row r="89" ht="25.5" customHeight="1" spans="1:8">
@@ -49069,7 +49069,7 @@
       <c r="F89" s="39">
         <v>3000</v>
       </c>
-      <c r="G89" s="35"/>
+      <c r="G89" s="44"/>
       <c r="H89" s="35"/>
     </row>
     <row r="90" ht="25.5" customHeight="1" spans="1:8">
@@ -49089,7 +49089,7 @@
       <c r="F90" s="39">
         <v>3000</v>
       </c>
-      <c r="G90" s="35"/>
+      <c r="G90" s="44"/>
       <c r="H90" s="35"/>
     </row>
     <row r="91" ht="25.5" customHeight="1" spans="1:8">
@@ -49109,7 +49109,7 @@
       <c r="F91" s="39">
         <v>3000</v>
       </c>
-      <c r="G91" s="35"/>
+      <c r="G91" s="44"/>
       <c r="H91" s="35"/>
     </row>
     <row r="92" ht="25.5" customHeight="1" spans="1:8">
@@ -49129,7 +49129,7 @@
       <c r="F92" s="39">
         <v>3000</v>
       </c>
-      <c r="G92" s="35"/>
+      <c r="G92" s="44"/>
       <c r="H92" s="35"/>
     </row>
     <row r="93" ht="25.5" customHeight="1" spans="1:8">
@@ -49149,7 +49149,7 @@
       <c r="F93" s="43">
         <v>3000</v>
       </c>
-      <c r="G93" s="35"/>
+      <c r="G93" s="44"/>
       <c r="H93" s="35"/>
     </row>
     <row r="94" ht="25.5" customHeight="1" spans="1:8">
@@ -49169,7 +49169,7 @@
       <c r="F94" s="43">
         <v>3000</v>
       </c>
-      <c r="G94" s="35"/>
+      <c r="G94" s="44"/>
       <c r="H94" s="35"/>
     </row>
     <row r="95" ht="25.5" customHeight="1" spans="1:8">
@@ -49191,7 +49191,7 @@
       <c r="F95" s="43">
         <v>3000</v>
       </c>
-      <c r="G95" s="35"/>
+      <c r="G95" s="44"/>
       <c r="H95" s="35"/>
     </row>
     <row r="96" ht="25.5" customHeight="1" spans="1:8">
@@ -49211,7 +49211,7 @@
       <c r="F96" s="43">
         <v>3000</v>
       </c>
-      <c r="G96" s="35"/>
+      <c r="G96" s="44"/>
       <c r="H96" s="35"/>
     </row>
     <row r="97" ht="25.5" customHeight="1" spans="1:8">
@@ -49231,7 +49231,7 @@
       <c r="F97" s="43">
         <v>3000</v>
       </c>
-      <c r="G97" s="35"/>
+      <c r="G97" s="44"/>
       <c r="H97" s="35"/>
     </row>
     <row r="98" ht="25.5" customHeight="1" spans="1:8">
@@ -49251,7 +49251,7 @@
       <c r="F98" s="43">
         <v>3000</v>
       </c>
-      <c r="G98" s="35"/>
+      <c r="G98" s="44"/>
       <c r="H98" s="35"/>
     </row>
     <row r="99" ht="25.5" customHeight="1" spans="1:8">
@@ -49273,7 +49273,7 @@
       <c r="F99" s="43">
         <v>3000</v>
       </c>
-      <c r="G99" s="35"/>
+      <c r="G99" s="44"/>
       <c r="H99" s="35"/>
     </row>
     <row r="100" ht="25.5" customHeight="1" spans="1:8">
@@ -49293,7 +49293,7 @@
       <c r="F100" s="43">
         <v>3000</v>
       </c>
-      <c r="G100" s="35"/>
+      <c r="G100" s="44"/>
       <c r="H100" s="35"/>
     </row>
     <row r="101" ht="25.5" customHeight="1" spans="1:8">
@@ -49313,7 +49313,7 @@
       <c r="F101" s="43">
         <v>3000</v>
       </c>
-      <c r="G101" s="35"/>
+      <c r="G101" s="44"/>
       <c r="H101" s="35"/>
     </row>
     <row r="102" ht="25.5" customHeight="1" spans="1:8">
@@ -49333,7 +49333,7 @@
       <c r="F102" s="43">
         <v>3000</v>
       </c>
-      <c r="G102" s="35"/>
+      <c r="G102" s="44"/>
       <c r="H102" s="35"/>
     </row>
     <row r="103" ht="25.5" customHeight="1" spans="1:8">
@@ -49353,7 +49353,7 @@
       <c r="F103" s="38">
         <v>3000</v>
       </c>
-      <c r="G103" s="35"/>
+      <c r="G103" s="44"/>
       <c r="H103" s="35"/>
     </row>
     <row r="104" ht="25.5" customHeight="1" spans="1:8">
@@ -49373,7 +49373,7 @@
       <c r="F104" s="38">
         <v>3000</v>
       </c>
-      <c r="G104" s="35"/>
+      <c r="G104" s="44"/>
       <c r="H104" s="35"/>
     </row>
     <row r="105" ht="25.5" customHeight="1" spans="1:8">
@@ -49393,7 +49393,7 @@
       <c r="F105" s="38">
         <v>3000</v>
       </c>
-      <c r="G105" s="35"/>
+      <c r="G105" s="44"/>
       <c r="H105" s="35"/>
     </row>
     <row r="106" ht="25.5" customHeight="1" spans="1:8">
@@ -49413,7 +49413,7 @@
       <c r="F106" s="38">
         <v>3000</v>
       </c>
-      <c r="G106" s="35"/>
+      <c r="G106" s="44"/>
       <c r="H106" s="35"/>
     </row>
     <row r="107" ht="25.5" customHeight="1" spans="1:10">
@@ -49433,7 +49433,7 @@
       <c r="F107" s="38">
         <v>3000</v>
       </c>
-      <c r="G107" s="35"/>
+      <c r="G107" s="44"/>
       <c r="H107" s="35"/>
       <c r="J107">
         <v>2</v>
@@ -49456,7 +49456,7 @@
       <c r="F108" s="38">
         <v>3000</v>
       </c>
-      <c r="G108" s="35"/>
+      <c r="G108" s="44"/>
       <c r="H108" s="35"/>
     </row>
     <row r="109" ht="25.5" customHeight="1" spans="1:8">
@@ -49476,7 +49476,7 @@
       <c r="F109" s="38">
         <v>3000</v>
       </c>
-      <c r="G109" s="35"/>
+      <c r="G109" s="44"/>
       <c r="H109" s="35"/>
     </row>
     <row r="110" ht="25.5" customHeight="1" spans="1:8">
@@ -49496,7 +49496,7 @@
       <c r="F110" s="38">
         <v>3000</v>
       </c>
-      <c r="G110" s="35"/>
+      <c r="G110" s="44"/>
       <c r="H110" s="35"/>
     </row>
     <row r="111" ht="25.5" customHeight="1" spans="1:8">
@@ -49516,7 +49516,7 @@
       <c r="F111" s="38">
         <v>3000</v>
       </c>
-      <c r="G111" s="35"/>
+      <c r="G111" s="44"/>
       <c r="H111" s="35"/>
     </row>
     <row r="112" ht="25.5" customHeight="1" spans="1:8">
@@ -49536,7 +49536,7 @@
       <c r="F112" s="38">
         <v>3000</v>
       </c>
-      <c r="G112" s="35"/>
+      <c r="G112" s="44"/>
       <c r="H112" s="35"/>
     </row>
     <row r="113" ht="25.5" customHeight="1" spans="1:8">
@@ -49556,7 +49556,7 @@
       <c r="F113" s="38">
         <v>3000</v>
       </c>
-      <c r="G113" s="35"/>
+      <c r="G113" s="44"/>
       <c r="H113" s="35"/>
     </row>
     <row r="114" ht="25.5" customHeight="1" spans="1:8">
@@ -49576,7 +49576,7 @@
       <c r="F114" s="38">
         <v>3000</v>
       </c>
-      <c r="G114" s="35"/>
+      <c r="G114" s="44"/>
       <c r="H114" s="35"/>
     </row>
     <row r="115" ht="25.5" customHeight="1" spans="1:8">
@@ -49596,7 +49596,7 @@
       <c r="F115" s="38">
         <v>3000</v>
       </c>
-      <c r="G115" s="35"/>
+      <c r="G115" s="44"/>
       <c r="H115" s="35"/>
     </row>
     <row r="116" ht="25.5" customHeight="1" spans="1:8">
@@ -49616,7 +49616,7 @@
       <c r="F116" s="38">
         <v>3000</v>
       </c>
-      <c r="G116" s="35"/>
+      <c r="G116" s="44"/>
       <c r="H116" s="35"/>
     </row>
     <row r="117" ht="25.5" customHeight="1" spans="1:8">
@@ -49636,7 +49636,7 @@
       <c r="F117" s="38">
         <v>3000</v>
       </c>
-      <c r="G117" s="35"/>
+      <c r="G117" s="44"/>
       <c r="H117" s="35"/>
     </row>
     <row r="118" ht="25.5" customHeight="1" spans="1:8">
@@ -49656,7 +49656,7 @@
       <c r="F118" s="38">
         <v>3000</v>
       </c>
-      <c r="G118" s="35"/>
+      <c r="G118" s="44"/>
       <c r="H118" s="35"/>
     </row>
     <row r="119" ht="25.5" customHeight="1" spans="1:8">
@@ -49678,7 +49678,7 @@
       <c r="F119" s="38">
         <v>3000</v>
       </c>
-      <c r="G119" s="35"/>
+      <c r="G119" s="44"/>
       <c r="H119" s="35"/>
     </row>
     <row r="120" ht="25.5" customHeight="1" spans="1:8">
@@ -49700,7 +49700,7 @@
       <c r="F120" s="38">
         <v>3000</v>
       </c>
-      <c r="G120" s="35"/>
+      <c r="G120" s="44"/>
       <c r="H120" s="35"/>
     </row>
     <row r="121" ht="25.5" customHeight="1" spans="1:8">
@@ -49722,7 +49722,7 @@
       <c r="F121" s="38">
         <v>3000</v>
       </c>
-      <c r="G121" s="35"/>
+      <c r="G121" s="44"/>
       <c r="H121" s="35"/>
     </row>
     <row r="122" ht="25.5" customHeight="1" spans="1:8">
@@ -49744,7 +49744,7 @@
       <c r="F122" s="38">
         <v>3000</v>
       </c>
-      <c r="G122" s="35"/>
+      <c r="G122" s="44"/>
       <c r="H122" s="35"/>
     </row>
     <row r="123" ht="25.5" customHeight="1" spans="1:8">
@@ -49766,7 +49766,7 @@
       <c r="F123" s="38">
         <v>3000</v>
       </c>
-      <c r="G123" s="35"/>
+      <c r="G123" s="44"/>
       <c r="H123" s="35"/>
     </row>
     <row r="124" ht="25.5" customHeight="1" spans="1:8">
@@ -49788,10 +49788,10 @@
       <c r="F124" s="38">
         <v>3000</v>
       </c>
-      <c r="G124" s="35"/>
+      <c r="G124" s="44"/>
       <c r="H124" s="35"/>
     </row>
-    <row r="125" s="62" customFormat="1" ht="25.5" customHeight="1" spans="1:8">
+    <row r="125" s="62" customFormat="1" ht="25.5" customHeight="1" spans="1:11">
       <c r="A125" s="39">
         <v>535</v>
       </c>
@@ -49810,8 +49810,9 @@
       <c r="F125" s="39">
         <v>5000</v>
       </c>
-      <c r="G125" s="63"/>
+      <c r="G125" s="44"/>
       <c r="H125" s="63"/>
+      <c r="K125"/>
     </row>
     <row r="126" ht="25.5" customHeight="1" spans="1:8">
       <c r="A126" s="38">
@@ -49830,7 +49831,7 @@
       <c r="F126" s="38">
         <v>3000</v>
       </c>
-      <c r="G126" s="35"/>
+      <c r="G126" s="44"/>
       <c r="H126" s="35"/>
     </row>
     <row r="127" ht="25.5" customHeight="1" spans="1:8">
@@ -49850,7 +49851,7 @@
       <c r="F127" s="38">
         <v>3000</v>
       </c>
-      <c r="G127" s="35"/>
+      <c r="G127" s="44"/>
       <c r="H127" s="35"/>
     </row>
     <row r="128" ht="25.5" customHeight="1" spans="1:8">
@@ -49870,7 +49871,7 @@
       <c r="F128" s="38">
         <v>3000</v>
       </c>
-      <c r="G128" s="35"/>
+      <c r="G128" s="44"/>
       <c r="H128" s="35"/>
     </row>
     <row r="129" ht="25.5" customHeight="1" spans="1:8">
@@ -49890,7 +49891,7 @@
       <c r="F129" s="38">
         <v>3000</v>
       </c>
-      <c r="G129" s="35"/>
+      <c r="G129" s="44"/>
       <c r="H129" s="35"/>
     </row>
     <row r="130" ht="25.5" customHeight="1" spans="1:8">
@@ -49910,7 +49911,7 @@
       <c r="F130" s="38">
         <v>3000</v>
       </c>
-      <c r="G130" s="35"/>
+      <c r="G130" s="44"/>
       <c r="H130" s="35"/>
     </row>
     <row r="131" ht="25.5" customHeight="1" spans="1:8">
@@ -49930,7 +49931,7 @@
       <c r="F131" s="38">
         <v>3000</v>
       </c>
-      <c r="G131" s="35"/>
+      <c r="G131" s="44"/>
       <c r="H131" s="35"/>
     </row>
     <row r="132" ht="25.5" customHeight="1" spans="1:8">
@@ -49952,7 +49953,7 @@
       <c r="F132" s="38">
         <v>3000</v>
       </c>
-      <c r="G132" s="35"/>
+      <c r="G132" s="44"/>
       <c r="H132" s="35"/>
     </row>
     <row r="133" ht="25.5" customHeight="1" spans="1:8">
@@ -49972,7 +49973,7 @@
       <c r="F133" s="38">
         <v>3000</v>
       </c>
-      <c r="G133" s="35"/>
+      <c r="G133" s="44"/>
       <c r="H133" s="35"/>
     </row>
     <row r="134" ht="25.5" customHeight="1" spans="1:8">
@@ -49992,7 +49993,7 @@
       <c r="F134" s="38">
         <v>3000</v>
       </c>
-      <c r="G134" s="35"/>
+      <c r="G134" s="44"/>
       <c r="H134" s="35"/>
     </row>
     <row r="135" ht="25.5" customHeight="1" spans="1:8">
@@ -50012,7 +50013,7 @@
       <c r="F135" s="38">
         <v>3000</v>
       </c>
-      <c r="G135" s="35"/>
+      <c r="G135" s="44"/>
       <c r="H135" s="35"/>
     </row>
     <row r="136" ht="25.5" customHeight="1" spans="1:8">
@@ -50032,7 +50033,7 @@
       <c r="F136" s="38">
         <v>3000</v>
       </c>
-      <c r="G136" s="35"/>
+      <c r="G136" s="44"/>
       <c r="H136" s="35"/>
     </row>
     <row r="137" ht="25.5" customHeight="1" spans="1:8">
@@ -50052,7 +50053,7 @@
       <c r="F137" s="38">
         <v>3000</v>
       </c>
-      <c r="G137" s="35"/>
+      <c r="G137" s="44"/>
       <c r="H137" s="35"/>
     </row>
     <row r="138" ht="25.5" customHeight="1" spans="1:8">
@@ -50072,7 +50073,7 @@
       <c r="F138" s="38">
         <v>3000</v>
       </c>
-      <c r="G138" s="35"/>
+      <c r="G138" s="44"/>
       <c r="H138" s="35"/>
     </row>
     <row r="139" ht="25.5" customHeight="1" spans="1:8">
@@ -50092,7 +50093,7 @@
       <c r="F139" s="38">
         <v>3000</v>
       </c>
-      <c r="G139" s="35"/>
+      <c r="G139" s="44"/>
       <c r="H139" s="35"/>
     </row>
     <row r="140" ht="25.5" customHeight="1" spans="1:8">
@@ -50112,7 +50113,7 @@
       <c r="F140" s="38">
         <v>3000</v>
       </c>
-      <c r="G140" s="35"/>
+      <c r="G140" s="44"/>
       <c r="H140" s="35"/>
     </row>
     <row r="141" ht="25.5" customHeight="1" spans="1:8">
@@ -50132,7 +50133,7 @@
       <c r="F141" s="38">
         <v>3000</v>
       </c>
-      <c r="G141" s="35"/>
+      <c r="G141" s="44"/>
       <c r="H141" s="35"/>
     </row>
     <row r="142" ht="25.5" customHeight="1" spans="1:8">
@@ -50152,7 +50153,7 @@
       <c r="F142" s="38">
         <v>3000</v>
       </c>
-      <c r="G142" s="35"/>
+      <c r="G142" s="44"/>
       <c r="H142" s="35"/>
     </row>
     <row r="143" ht="25.5" customHeight="1" spans="1:8">
@@ -50172,7 +50173,7 @@
       <c r="F143" s="38">
         <v>3000</v>
       </c>
-      <c r="G143" s="35"/>
+      <c r="G143" s="44"/>
       <c r="H143" s="35"/>
     </row>
     <row r="144" ht="25.5" customHeight="1" spans="1:8">
@@ -50192,7 +50193,7 @@
       <c r="F144" s="38">
         <v>3000</v>
       </c>
-      <c r="G144" s="35"/>
+      <c r="G144" s="44"/>
       <c r="H144" s="35"/>
     </row>
     <row r="145" ht="25.5" customHeight="1" spans="1:8">
@@ -50212,7 +50213,7 @@
       <c r="F145" s="38">
         <v>3000</v>
       </c>
-      <c r="G145" s="35"/>
+      <c r="G145" s="44"/>
       <c r="H145" s="35"/>
     </row>
     <row r="146" ht="25.5" customHeight="1" spans="1:8">
@@ -50232,7 +50233,7 @@
       <c r="F146" s="38">
         <v>3000</v>
       </c>
-      <c r="G146" s="35"/>
+      <c r="G146" s="44"/>
       <c r="H146" s="35"/>
     </row>
     <row r="147" ht="25.5" customHeight="1" spans="1:8">
@@ -50252,7 +50253,7 @@
       <c r="F147" s="38">
         <v>3000</v>
       </c>
-      <c r="G147" s="35"/>
+      <c r="G147" s="44"/>
       <c r="H147" s="35"/>
     </row>
     <row r="148" ht="25.5" customHeight="1" spans="1:8">
@@ -50272,7 +50273,7 @@
       <c r="F148" s="38">
         <v>3000</v>
       </c>
-      <c r="G148" s="35"/>
+      <c r="G148" s="44"/>
       <c r="H148" s="35"/>
     </row>
     <row r="149" ht="25.5" customHeight="1" spans="1:8">
@@ -50292,7 +50293,7 @@
       <c r="F149" s="38">
         <v>3000</v>
       </c>
-      <c r="G149" s="35"/>
+      <c r="G149" s="44"/>
       <c r="H149" s="35"/>
     </row>
     <row r="150" ht="25.5" customHeight="1" spans="1:8">
@@ -50312,7 +50313,7 @@
       <c r="F150" s="38">
         <v>3000</v>
       </c>
-      <c r="G150" s="35"/>
+      <c r="G150" s="44"/>
       <c r="H150" s="35"/>
     </row>
     <row r="151" ht="25.5" customHeight="1" spans="1:8">
@@ -50334,7 +50335,7 @@
       <c r="F151" s="38">
         <v>3000</v>
       </c>
-      <c r="G151" s="35"/>
+      <c r="G151" s="44"/>
       <c r="H151" s="35"/>
     </row>
     <row r="152" ht="25.5" customHeight="1" spans="1:8">
@@ -50354,7 +50355,7 @@
       <c r="F152" s="38">
         <v>3000</v>
       </c>
-      <c r="G152" s="35"/>
+      <c r="G152" s="44"/>
       <c r="H152" s="35"/>
     </row>
     <row r="153" ht="25.5" customHeight="1" spans="1:8">
@@ -50374,7 +50375,7 @@
       <c r="F153" s="38">
         <v>3000</v>
       </c>
-      <c r="G153" s="35"/>
+      <c r="G153" s="44"/>
       <c r="H153" s="35"/>
     </row>
     <row r="154" ht="25.5" customHeight="1" spans="1:8">
@@ -50394,7 +50395,7 @@
       <c r="F154" s="38">
         <v>3000</v>
       </c>
-      <c r="G154" s="35"/>
+      <c r="G154" s="44"/>
       <c r="H154" s="35"/>
     </row>
     <row r="155" ht="25.5" customHeight="1" spans="1:8">
@@ -50414,7 +50415,7 @@
       <c r="F155" s="38">
         <v>3000</v>
       </c>
-      <c r="G155" s="35"/>
+      <c r="G155" s="44"/>
       <c r="H155" s="35"/>
     </row>
     <row r="156" ht="25.5" customHeight="1" spans="1:8">
@@ -50434,7 +50435,7 @@
       <c r="F156" s="38">
         <v>3000</v>
       </c>
-      <c r="G156" s="35"/>
+      <c r="G156" s="44"/>
       <c r="H156" s="35"/>
     </row>
     <row r="157" ht="25.5" customHeight="1" spans="1:8">
@@ -50454,7 +50455,7 @@
       <c r="F157" s="38">
         <v>3000</v>
       </c>
-      <c r="G157" s="35"/>
+      <c r="G157" s="44"/>
       <c r="H157" s="35"/>
     </row>
     <row r="158" ht="25.5" customHeight="1" spans="1:8">
@@ -50474,7 +50475,7 @@
       <c r="F158" s="38">
         <v>3000</v>
       </c>
-      <c r="G158" s="35"/>
+      <c r="G158" s="44"/>
       <c r="H158" s="35"/>
     </row>
     <row r="159" ht="25.5" customHeight="1" spans="1:8">
@@ -50494,7 +50495,7 @@
       <c r="F159" s="38">
         <v>3000</v>
       </c>
-      <c r="G159" s="35"/>
+      <c r="G159" s="44"/>
       <c r="H159" s="35"/>
     </row>
     <row r="160" ht="25.5" customHeight="1" spans="1:8">
@@ -50516,7 +50517,7 @@
       <c r="F160" s="38">
         <v>3000</v>
       </c>
-      <c r="G160" s="35"/>
+      <c r="G160" s="44"/>
       <c r="H160" s="35"/>
     </row>
     <row r="161" ht="25.5" customHeight="1" spans="1:8">
@@ -50538,7 +50539,7 @@
       <c r="F161" s="38">
         <v>3000</v>
       </c>
-      <c r="G161" s="35"/>
+      <c r="G161" s="44"/>
       <c r="H161" s="35"/>
     </row>
     <row r="162" ht="25.5" customHeight="1" spans="1:8">
@@ -50558,7 +50559,7 @@
       <c r="F162" s="38">
         <v>3000</v>
       </c>
-      <c r="G162" s="35"/>
+      <c r="G162" s="44"/>
       <c r="H162" s="35"/>
     </row>
     <row r="163" ht="25.5" customHeight="1" spans="1:8">
@@ -50578,7 +50579,7 @@
       <c r="F163" s="38">
         <v>3000</v>
       </c>
-      <c r="G163" s="35"/>
+      <c r="G163" s="44"/>
       <c r="H163" s="35"/>
     </row>
     <row r="164" ht="25.5" customHeight="1" spans="1:8">
@@ -50598,7 +50599,7 @@
       <c r="F164" s="38">
         <v>3000</v>
       </c>
-      <c r="G164" s="35"/>
+      <c r="G164" s="44"/>
       <c r="H164" s="35"/>
     </row>
     <row r="165" ht="25.5" customHeight="1" spans="1:8">
@@ -50618,7 +50619,7 @@
       <c r="F165" s="38">
         <v>3000</v>
       </c>
-      <c r="G165" s="35"/>
+      <c r="G165" s="44"/>
       <c r="H165" s="35"/>
     </row>
     <row r="166" ht="25.5" customHeight="1" spans="1:8">
@@ -50638,7 +50639,7 @@
       <c r="F166" s="38">
         <v>3000</v>
       </c>
-      <c r="G166" s="35"/>
+      <c r="G166" s="44"/>
       <c r="H166" s="35"/>
     </row>
     <row r="167" ht="25.5" customHeight="1" spans="1:8">
@@ -50658,7 +50659,7 @@
       <c r="F167" s="38">
         <v>3000</v>
       </c>
-      <c r="G167" s="35"/>
+      <c r="G167" s="44"/>
       <c r="H167" s="35"/>
     </row>
     <row r="168" ht="25.5" customHeight="1" spans="1:8">
@@ -50678,7 +50679,7 @@
       <c r="F168" s="38">
         <v>3000</v>
       </c>
-      <c r="G168" s="35"/>
+      <c r="G168" s="44"/>
       <c r="H168" s="35"/>
     </row>
     <row r="169" ht="25.5" customHeight="1" spans="1:8">
@@ -50698,7 +50699,7 @@
       <c r="F169" s="38">
         <v>3000</v>
       </c>
-      <c r="G169" s="35"/>
+      <c r="G169" s="44"/>
       <c r="H169" s="35"/>
     </row>
     <row r="170" ht="25.5" customHeight="1" spans="1:8">
@@ -51291,7 +51292,7 @@
       <c r="G197" s="35"/>
       <c r="H197" s="35"/>
     </row>
-    <row r="198" s="61" customFormat="1" ht="25.5" customHeight="1" spans="1:10">
+    <row r="198" s="61" customFormat="1" ht="25.5" customHeight="1" spans="1:11">
       <c r="A198" s="59">
         <v>547</v>
       </c>
@@ -51308,7 +51309,7 @@
       <c r="F198" s="59">
         <v>4000</v>
       </c>
-      <c r="G198" s="60"/>
+      <c r="G198" s="35"/>
       <c r="H198" s="60"/>
       <c r="I198" s="61">
         <v>1</v>
@@ -51316,6 +51317,7 @@
       <c r="J198" s="61">
         <v>2</v>
       </c>
+      <c r="K198"/>
     </row>
     <row r="199" ht="25.5" customHeight="1" spans="1:8">
       <c r="A199" s="36">
@@ -51476,6 +51478,7 @@
       <c r="F206" s="38">
         <v>5000</v>
       </c>
+      <c r="G206" s="35"/>
       <c r="I206">
         <v>1</v>
       </c>

--- a/2023年9月.xlsx
+++ b/2023年9月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12255" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="一期商户情况-区域划分" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37276,12 +37276,12 @@
   <sheetPr/>
   <dimension ref="A1:BB80"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -47100,7 +47100,7 @@
   <sheetPr/>
   <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
